--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/Agency Host Bank DE Extract.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/Agency Host Bank DE Extract.xlsx
@@ -77,19 +77,19 @@
     <t>FROM </t>
   </si>
   <si>
-    <t>Ongoing Fee Payment                               </t>
-  </si>
-  <si>
-    <t>1001689     </t>
-  </si>
-  <si>
-    <t>FEEPY</t>
+    <t>Amortizing Admin Fee Payment                      </t>
+  </si>
+  <si>
+    <t>1001805     </t>
+  </si>
+  <si>
+    <t>AAFPY</t>
   </si>
   <si>
     <t>BP_CML         </t>
   </si>
   <si>
-    <t>22EKVK8X</t>
+    <t>(9EL8E3J</t>
   </si>
   <si>
     <t>AUSAG</t>
@@ -106,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.########"/>
+    <numFmt numFmtId="164" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -272,7 +272,7 @@
     <col min="4" max="4" width="18.821669" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.556346" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.025702" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.597469" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.128114" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.352313" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.617635" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.821669" bestFit="1" customWidth="1"/>
@@ -344,7 +344,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="12">
-        <v>9863.01</v>
+        <v>55000</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>18</v>
@@ -353,10 +353,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="13">
-        <v>44823</v>
+        <v>44855</v>
       </c>
       <c r="F3" s="13">
-        <v>44823</v>
+        <v>44855</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>20</v>
@@ -384,7 +384,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="15">
-        <v>44173.58143518</v>
+        <v>44180.52966435</v>
       </c>
     </row>
   </sheetData>
